--- a/NformTester/NformTester/keywordscripts/TST2748_DeviceStatusPollingAndGolbalStatusPolling.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2748_DeviceStatusPollingAndGolbalStatusPolling.xlsx
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8312" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8312" uniqueCount="883">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3822,14 +3822,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3843,16 +3835,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMPdevice_1$</t>
-  </si>
-  <si>
-    <t>$GXT_1_NAME$</t>
-  </si>
-  <si>
     <t>;Select 'Priority' for global on Server options window, click 'OK'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3885,10 +3867,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Select 'Daily' on global status polling on Server options window.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3965,6 +3943,24 @@
   </si>
   <si>
     <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_1$</t>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1_NAME$</t>
   </si>
 </sst>
 </file>
@@ -4195,21 +4191,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4530,8 +4512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4541,6 +4523,9 @@
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="6.125" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4704,7 +4689,7 @@
         <v>817</v>
       </c>
       <c r="B6" s="8">
-        <v>41121</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -4747,29 +4732,27 @@
         <v>845</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>850</v>
       </c>
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>852</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -4787,34 +4770,32 @@
         <v>845</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>850</v>
       </c>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>820</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4828,8 +4809,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>820</v>
+      </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
@@ -4843,7 +4828,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -4854,10 +4839,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
@@ -4871,7 +4854,7 @@
         <v>84</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -4883,7 +4866,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="3">
@@ -4899,7 +4882,7 @@
         <v>441</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="6"/>
@@ -4911,7 +4894,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="3">
@@ -4930,10 +4913,10 @@
         <v>7</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J13" s="3" t="b">
         <v>1</v>
@@ -4945,7 +4928,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="3">
@@ -4961,7 +4944,7 @@
         <v>485</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="3"/>
@@ -4973,7 +4956,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="3">
@@ -4989,7 +4972,7 @@
         <v>486</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="3"/>
@@ -5001,7 +4984,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="3">
@@ -5017,7 +5000,7 @@
         <v>487</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -5028,10 +5011,10 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="12" t="s">
-        <v>828</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="3">
         <v>16</v>
       </c>
@@ -5045,7 +5028,7 @@
         <v>484</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="3"/>
@@ -5058,7 +5041,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -5073,7 +5056,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="3"/>
@@ -5084,17 +5067,15 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="15">
-      <c r="A19" s="2" t="s">
-        <v>830</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="12" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5109,9 +5090,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B20" s="12"/>
+        <v>830</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>820</v>
+      </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
@@ -5137,7 +5120,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="3">
@@ -5150,10 +5133,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -5164,14 +5147,18 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B22" s="12"/>
       <c r="C22" s="3">
         <v>21</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>621</v>
@@ -5180,7 +5167,7 @@
         <v>56</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -5194,10 +5181,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>203</v>
@@ -5230,10 +5217,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J24" s="3" t="b">
         <v>1</v>
@@ -5347,7 +5334,7 @@
         <v>821</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>100</v>
@@ -5368,7 +5355,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -5395,7 +5382,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -5419,7 +5406,7 @@
         <v>84</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -5443,7 +5430,7 @@
         <v>441</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="6"/>
@@ -5470,10 +5457,10 @@
         <v>7</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J34" s="3" t="b">
         <v>1</v>
@@ -5497,7 +5484,7 @@
         <v>485</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="3"/>
@@ -5521,10 +5508,10 @@
         <v>488</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -5547,7 +5534,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -5562,7 +5549,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5610,10 +5597,10 @@
         <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -5628,10 +5615,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>621</v>
@@ -5640,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -5654,10 +5641,10 @@
         <v>41</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>203</v>
@@ -5678,7 +5665,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="3"/>
@@ -5696,10 +5683,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F44" s="3">
         <v>2</v>
@@ -5730,10 +5717,10 @@
         <v>7</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J45" s="3" t="b">
         <v>1</v>
@@ -5772,10 +5759,10 @@
         <v>46</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F47" s="3">
         <v>2</v>
@@ -5821,7 +5808,7 @@
         <v>821</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>100</v>
@@ -5842,7 +5829,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5869,7 +5856,7 @@
         <v>22</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -5893,7 +5880,7 @@
         <v>84</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -5917,7 +5904,7 @@
         <v>441</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="6"/>
@@ -5944,10 +5931,10 @@
         <v>7</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J54" s="3" t="b">
         <v>1</v>
@@ -5971,7 +5958,7 @@
         <v>486</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="3"/>
@@ -6091,7 +6078,7 @@
         <v>17</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -6106,7 +6093,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -6154,10 +6141,10 @@
         <v>19</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -6172,10 +6159,10 @@
         <v>63</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>621</v>
@@ -6184,7 +6171,7 @@
         <v>56</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -6198,10 +6185,10 @@
         <v>64</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>203</v>
@@ -6222,7 +6209,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="3"/>
@@ -6240,10 +6227,10 @@
         <v>66</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
@@ -6262,7 +6249,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>559</v>
@@ -6274,10 +6261,10 @@
         <v>7</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J68" s="3" t="b">
         <v>1</v>
@@ -6316,10 +6303,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F70" s="3">
         <v>2</v>
@@ -6365,7 +6352,7 @@
         <v>821</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>100</v>
@@ -6386,7 +6373,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -6413,7 +6400,7 @@
         <v>22</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -6437,7 +6424,7 @@
         <v>84</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -6461,7 +6448,7 @@
         <v>441</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="6"/>
@@ -6488,10 +6475,10 @@
         <v>7</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J77" s="3" t="b">
         <v>1</v>
@@ -6515,7 +6502,7 @@
         <v>487</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="3"/>
@@ -6539,7 +6526,7 @@
         <v>17</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
@@ -6554,7 +6541,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -6602,10 +6589,10 @@
         <v>19</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -6620,10 +6607,10 @@
         <v>82</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>621</v>
@@ -6632,7 +6619,7 @@
         <v>56</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -6646,10 +6633,10 @@
         <v>83</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>203</v>
@@ -6670,7 +6657,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="3"/>
@@ -6688,10 +6675,10 @@
         <v>85</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F86" s="3">
         <v>2</v>
@@ -6761,7 +6748,7 @@
         <v>821</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>100</v>
@@ -6782,7 +6769,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="3"/>
@@ -6809,7 +6796,7 @@
         <v>22</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
@@ -6833,7 +6820,7 @@
         <v>84</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -6857,7 +6844,7 @@
         <v>441</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="6"/>
@@ -6884,10 +6871,10 @@
         <v>7</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J94" s="3" t="b">
         <v>1</v>
@@ -6911,7 +6898,7 @@
         <v>484</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="3"/>
@@ -6935,7 +6922,7 @@
         <v>17</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
@@ -6950,7 +6937,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -6998,10 +6985,10 @@
         <v>19</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -7016,10 +7003,10 @@
         <v>99</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>621</v>
@@ -7028,7 +7015,7 @@
         <v>56</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -7042,10 +7029,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>203</v>
@@ -7066,10 +7053,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F102" s="3">
         <v>2</v>
@@ -7136,10 +7123,10 @@
         <v>104</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>621</v>
@@ -7148,7 +7135,7 @@
         <v>56</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -7162,10 +7149,10 @@
         <v>105</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>203</v>
@@ -7186,7 +7173,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>559</v>
@@ -7195,13 +7182,13 @@
         <v>571</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J107" s="3" t="b">
         <v>1</v>
@@ -7216,7 +7203,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>559</v>
@@ -7240,7 +7227,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>559</v>
@@ -7264,7 +7251,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>559</v>
@@ -7291,7 +7278,7 @@
         <v>821</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>100</v>
@@ -7312,7 +7299,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -7339,7 +7326,7 @@
         <v>22</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
@@ -7363,7 +7350,7 @@
         <v>84</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
@@ -7387,7 +7374,7 @@
         <v>441</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="6"/>
@@ -7414,10 +7401,10 @@
         <v>7</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J116" s="3" t="b">
         <v>1</v>
@@ -7441,7 +7428,7 @@
         <v>485</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H117" s="6"/>
       <c r="I117" s="3"/>
@@ -7465,10 +7452,10 @@
         <v>488</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -7491,7 +7478,7 @@
         <v>17</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
@@ -7506,7 +7493,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -7554,10 +7541,10 @@
         <v>19</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -7572,10 +7559,10 @@
         <v>122</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>621</v>
@@ -7584,7 +7571,7 @@
         <v>56</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -7598,10 +7585,10 @@
         <v>123</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>203</v>
@@ -7622,7 +7609,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="3"/>
@@ -7640,10 +7627,10 @@
         <v>125</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F126" s="3">
         <v>2</v>
@@ -7674,10 +7661,10 @@
         <v>7</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J127" s="3" t="b">
         <v>1</v>
@@ -7716,10 +7703,10 @@
         <v>128</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F129" s="3">
         <v>2</v>
@@ -7762,10 +7749,10 @@
         <v>130</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>621</v>
@@ -7774,7 +7761,7 @@
         <v>56</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -7788,10 +7775,10 @@
         <v>131</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>203</v>
@@ -7812,7 +7799,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="3"/>
@@ -7830,10 +7817,10 @@
         <v>133</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F134" s="3">
         <v>2</v>
@@ -7864,10 +7851,10 @@
         <v>7</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J135" s="3" t="b">
         <v>1</v>
@@ -7906,10 +7893,10 @@
         <v>136</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F137" s="3">
         <v>2</v>
@@ -7955,7 +7942,7 @@
         <v>821</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>100</v>
@@ -7976,7 +7963,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="3"/>
@@ -8003,7 +7990,7 @@
         <v>22</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
@@ -8027,7 +8014,7 @@
         <v>84</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
@@ -8051,7 +8038,7 @@
         <v>441</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="6"/>
@@ -8078,10 +8065,10 @@
         <v>7</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J144" s="3" t="b">
         <v>1</v>
@@ -8105,7 +8092,7 @@
         <v>484</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H145" s="6"/>
       <c r="I145" s="3"/>
@@ -8129,7 +8116,7 @@
         <v>17</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H146" s="6"/>
       <c r="I146" s="3"/>
@@ -8174,10 +8161,10 @@
         <v>19</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -8192,10 +8179,10 @@
         <v>148</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>621</v>
@@ -8204,7 +8191,7 @@
         <v>56</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -8218,10 +8205,10 @@
         <v>149</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>203</v>
@@ -8254,10 +8241,10 @@
         <v>7</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J151" s="3" t="b">
         <v>1</v>
@@ -8272,10 +8259,10 @@
         <v>151</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F152" s="3">
         <v>2</v>
@@ -8318,10 +8305,10 @@
         <v>153</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>621</v>
@@ -8330,7 +8317,7 @@
         <v>56</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -8344,10 +8331,10 @@
         <v>154</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>203</v>
@@ -8380,10 +8367,10 @@
         <v>7</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J156" s="3" t="b">
         <v>1</v>
@@ -8398,10 +8385,10 @@
         <v>156</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F157" s="3">
         <v>2</v>
@@ -8447,7 +8434,7 @@
         <v>821</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>100</v>
@@ -8468,7 +8455,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="3"/>
@@ -8516,10 +8503,10 @@
         <v>19</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -8534,10 +8521,10 @@
         <v>162</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>621</v>
@@ -8546,7 +8533,7 @@
         <v>56</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -8560,10 +8547,10 @@
         <v>163</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>203</v>
@@ -8596,10 +8583,10 @@
         <v>7</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J165" s="3" t="b">
         <v>1</v>
@@ -8614,10 +8601,10 @@
         <v>165</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F166" s="3">
         <v>2</v>
@@ -8687,7 +8674,7 @@
         <v>821</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>100</v>
@@ -8708,7 +8695,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -8735,7 +8722,7 @@
         <v>22</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
@@ -8759,7 +8746,7 @@
         <v>84</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
@@ -8783,7 +8770,7 @@
         <v>441</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H173" s="3"/>
       <c r="I173" s="6"/>
@@ -8810,10 +8797,10 @@
         <v>7</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J174" s="3" t="b">
         <v>1</v>
@@ -8837,7 +8824,7 @@
         <v>485</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H175" s="6"/>
       <c r="I175" s="3"/>
@@ -8861,10 +8848,10 @@
         <v>488</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H176" s="16" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -8887,7 +8874,7 @@
         <v>17</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
@@ -8902,7 +8889,7 @@
         <v>177</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="3"/>
@@ -8950,10 +8937,10 @@
         <v>19</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -8968,10 +8955,10 @@
         <v>180</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>621</v>
@@ -8980,7 +8967,7 @@
         <v>56</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -8994,10 +8981,10 @@
         <v>181</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>203</v>
@@ -9030,10 +9017,10 @@
         <v>7</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J183" s="3" t="b">
         <v>1</v>
@@ -9048,10 +9035,10 @@
         <v>183</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F184" s="3">
         <v>2</v>
@@ -9094,10 +9081,10 @@
         <v>185</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>621</v>
@@ -9106,7 +9093,7 @@
         <v>56</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -9120,10 +9107,10 @@
         <v>186</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>203</v>
@@ -9156,10 +9143,10 @@
         <v>7</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J188" s="3" t="b">
         <v>0</v>
@@ -9174,10 +9161,10 @@
         <v>188</v>
       </c>
       <c r="D189" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F189" s="3">
         <v>2</v>
@@ -9223,7 +9210,7 @@
         <v>821</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>100</v>
@@ -9244,7 +9231,7 @@
         <v>191</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -9271,7 +9258,7 @@
         <v>22</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
@@ -9295,7 +9282,7 @@
         <v>84</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
@@ -9319,7 +9306,7 @@
         <v>441</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="6"/>
@@ -9346,10 +9333,10 @@
         <v>7</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J196" s="3" t="b">
         <v>1</v>
@@ -9373,7 +9360,7 @@
         <v>484</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H197" s="6"/>
       <c r="I197" s="3"/>
@@ -9397,7 +9384,7 @@
         <v>17</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H198" s="6"/>
       <c r="I198" s="3"/>
@@ -9412,10 +9399,10 @@
         <v>198</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F199" s="3">
         <v>2</v>
@@ -9458,7 +9445,7 @@
         <v>200</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>19</v>
@@ -9482,10 +9469,10 @@
         <v>201</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>621</v>
@@ -9494,7 +9481,7 @@
         <v>3</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
@@ -9508,10 +9495,10 @@
         <v>202</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>213</v>
@@ -9532,7 +9519,7 @@
         <v>203</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>628</v>
@@ -9556,10 +9543,10 @@
         <v>204</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>100</v>
@@ -9578,18 +9565,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N66">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N205">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
